--- a/biology/Zoologie/Herbert_Druce/Herbert_Druce.xlsx
+++ b/biology/Zoologie/Herbert_Druce/Herbert_Druce.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Herbert Druce est un entomologiste britannique, né le 14 juillet 1846 à Londres et mort le 11 avril 1913 dans cette même ville.
 Ses collections de Rhopalocères sont acquises, vers 1880, par Frederick DuCane Godman (1834-1919) et Osbert Salvin (1835-1898) avant d’être léguées au British Museum.
@@ -512,7 +524,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1872 : avec Arthur Gardiner Butler (1844-1925), Descriptions of new genera and species of Lepidoptera from Costa Rica. Cistula entomologica, 1 : 95–118.
 1907 : On Neotropical Lycaenidae, with Descriptions of New Species. Proceedings of the Zoological Society of London : 566–632, pls. 31–36.</t>
